--- a/biology/Zoologie/Grandilithus_fujianus/Grandilithus_fujianus.xlsx
+++ b/biology/Zoologie/Grandilithus_fujianus/Grandilithus_fujianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus fujianus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus fujianus est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Fujian en Chine[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Fujian en Chine,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,72 mm et la femelle paratype 5,01 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,72 mm et la femelle paratype 5,01 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia fujiana par Fu, Jin et Zhang en 2014. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia fujiana par Fu, Jin et Zhang en 2014. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Fujian.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fu, Jin &amp; Zhang, 2014 : « Three new species of the genus Otacilia Thorell (Araneae: Phrurolithidae) from China. » Zootaxa, no 3869(4), p. 483-492.</t>
         </is>
